--- a/examples/reports/en-gb/CompanyProceduresReportTemplate.xlsx
+++ b/examples/reports/en-gb/CompanyProceduresReportTemplate.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t xml:space="preserve">Сompany requests</t>
   </si>
@@ -49,6 +49,9 @@
     <t xml:space="preserve">Budget</t>
   </si>
   <si>
+    <t xml:space="preserve">Request category</t>
+  </si>
+  <si>
     <t xml:space="preserve">Currency</t>
   </si>
   <si>
@@ -85,7 +88,7 @@
     <t xml:space="preserve">Order price</t>
   </si>
   <si>
-    <t xml:space="preserve">Owners</t>
+    <t xml:space="preserve">Responsible owners</t>
   </si>
   <si>
     <t xml:space="preserve">Price change</t>
@@ -130,6 +133,9 @@
     <t xml:space="preserve">$.Procedures[*].Budget</t>
   </si>
   <si>
+    <t xml:space="preserve">$.Procedures[*].Category</t>
+  </si>
+  <si>
     <t xml:space="preserve">$.Procedures[*].Currency</t>
   </si>
   <si>
@@ -166,7 +172,7 @@
     <t xml:space="preserve">$.Procedures[*].OrderPrice</t>
   </si>
   <si>
-    <t xml:space="preserve">$.Procedures[*].ComaSeparatedOwners</t>
+    <t xml:space="preserve">$.Procedures[*].Responsible</t>
   </si>
   <si>
     <t xml:space="preserve">$.Procedures[*].ChangeType</t>
@@ -200,11 +206,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00&quot; ₽&quot;"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="#\ ##0.00"/>
+    <numFmt numFmtId="168" formatCode="#\ ##0.00&quot; ₽&quot;"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -218,16 +225,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
     </font>
     <font>
       <b val="true"/>
@@ -238,16 +248,16 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <b val="true"/>
@@ -344,7 +354,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -353,27 +363,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -385,16 +403,16 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -471,637 +489,1297 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BL13"/>
+  <dimension ref="A1:BM22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="92.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="8" style="0" width="16.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="30.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="58.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="20" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="27.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="105.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="20.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="9" style="0" width="16.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="20.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="30.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="58.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="21" style="0" width="20.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="27.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="13.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="105.3"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" s="2" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="3" s="2" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="4" s="2" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
-      <c r="AI5" s="4"/>
-      <c r="AJ5" s="4"/>
-      <c r="AK5" s="4"/>
-      <c r="AL5" s="4"/>
-      <c r="AM5" s="4"/>
-      <c r="AN5" s="4"/>
-      <c r="AO5" s="4"/>
-      <c r="AP5" s="4"/>
-      <c r="AQ5" s="4"/>
-      <c r="AR5" s="4"/>
-      <c r="AS5" s="4"/>
-      <c r="AT5" s="4"/>
-      <c r="AU5" s="4"/>
-      <c r="AV5" s="4"/>
-      <c r="AW5" s="4"/>
-      <c r="AX5" s="4"/>
-      <c r="AY5" s="4"/>
-      <c r="AZ5" s="4"/>
-      <c r="BA5" s="4"/>
-      <c r="BB5" s="4"/>
-      <c r="BC5" s="4"/>
-      <c r="BD5" s="4"/>
-      <c r="BE5" s="4"/>
-      <c r="BF5" s="4"/>
-      <c r="BG5" s="4"/>
-      <c r="BH5" s="4"/>
-      <c r="BI5" s="4"/>
-      <c r="BJ5" s="4"/>
-      <c r="BK5" s="4"/>
-      <c r="BL5" s="4"/>
-    </row>
-    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="6" s="6" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="O6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="P6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="Q6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R6" s="6" t="s">
+      <c r="R6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="S6" s="6" t="s">
+      <c r="S6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="T6" s="6" t="s">
+      <c r="T6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="U6" s="6" t="s">
+      <c r="U6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="V6" s="6" t="s">
+      <c r="V6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W6" s="6" t="s">
+      <c r="W6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="X6" s="6" t="s">
+      <c r="X6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="Y6" s="6" t="s">
+      <c r="Y6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Z6" s="6" t="s">
+      <c r="Z6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AA6" s="6" t="s">
+      <c r="AA6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="4"/>
-      <c r="AJ6" s="4"/>
-      <c r="AK6" s="4"/>
-      <c r="AL6" s="4"/>
-      <c r="AM6" s="4"/>
-      <c r="AN6" s="4"/>
-      <c r="AO6" s="4"/>
-      <c r="AP6" s="4"/>
-      <c r="AQ6" s="4"/>
-      <c r="AR6" s="4"/>
-      <c r="AS6" s="4"/>
-      <c r="AT6" s="4"/>
-      <c r="AU6" s="4"/>
-      <c r="AV6" s="4"/>
-      <c r="AW6" s="4"/>
-      <c r="AX6" s="4"/>
-      <c r="AY6" s="4"/>
-      <c r="AZ6" s="4"/>
-      <c r="BA6" s="4"/>
-      <c r="BB6" s="4"/>
-      <c r="BC6" s="4"/>
-      <c r="BD6" s="4"/>
-      <c r="BE6" s="4"/>
-      <c r="BF6" s="4"/>
-      <c r="BG6" s="4"/>
-      <c r="BH6" s="4"/>
-      <c r="BI6" s="4"/>
-      <c r="BJ6" s="4"/>
-      <c r="BK6" s="4"/>
-      <c r="BL6" s="4"/>
+      <c r="AB6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="5"/>
+      <c r="AQ6" s="5"/>
+      <c r="AR6" s="5"/>
+      <c r="AS6" s="5"/>
+      <c r="AT6" s="5"/>
+      <c r="AU6" s="5"/>
+      <c r="AV6" s="5"/>
+      <c r="AW6" s="5"/>
+      <c r="AX6" s="5"/>
+      <c r="AY6" s="5"/>
+      <c r="AZ6" s="5"/>
+      <c r="BA6" s="5"/>
+      <c r="BB6" s="5"/>
+      <c r="BC6" s="5"/>
+      <c r="BD6" s="5"/>
+      <c r="BE6" s="5"/>
+      <c r="BF6" s="5"/>
+      <c r="BG6" s="5"/>
+      <c r="BH6" s="5"/>
+      <c r="BI6" s="5"/>
+      <c r="BJ6" s="5"/>
+      <c r="BK6" s="5"/>
+      <c r="BL6" s="5"/>
+      <c r="BM6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="9" t="s">
         <v>35</v>
       </c>
+      <c r="E7" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="F7" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="I7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="J7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="K7" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="L7" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="M7" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="N7" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="O7" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="9" t="s">
+      <c r="P7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="R7" s="10" t="s">
+      <c r="Q7" s="8" t="s">
         <v>48</v>
       </c>
+      <c r="R7" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="S7" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="T7" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="U7" s="9" t="s">
+      <c r="T7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="V7" s="9" t="s">
+      <c r="U7" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="W7" s="9" t="s">
+      <c r="V7" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="X7" s="9" t="s">
+      <c r="W7" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="Y7" s="9" t="s">
+      <c r="X7" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="Z7" s="8" t="s">
+      <c r="Y7" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="AA7" s="10" t="s">
+      <c r="Z7" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="4"/>
-      <c r="AM7" s="4"/>
-      <c r="AN7" s="4"/>
-      <c r="AO7" s="4"/>
-      <c r="AP7" s="4"/>
-      <c r="AQ7" s="4"/>
-      <c r="AR7" s="4"/>
-      <c r="AS7" s="4"/>
-      <c r="AT7" s="4"/>
-      <c r="AU7" s="4"/>
-      <c r="AV7" s="4"/>
-      <c r="AW7" s="4"/>
-      <c r="AX7" s="4"/>
-      <c r="AY7" s="4"/>
-      <c r="AZ7" s="4"/>
-      <c r="BA7" s="4"/>
-      <c r="BB7" s="4"/>
-      <c r="BC7" s="4"/>
-      <c r="BD7" s="4"/>
-      <c r="BE7" s="4"/>
-      <c r="BF7" s="4"/>
-      <c r="BG7" s="4"/>
-      <c r="BH7" s="4"/>
-      <c r="BI7" s="4"/>
-      <c r="BJ7" s="4"/>
-      <c r="BK7" s="4"/>
+      <c r="AA7" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="12"/>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="12"/>
+      <c r="AK7" s="12"/>
+      <c r="AL7" s="12"/>
+      <c r="AM7" s="12"/>
+      <c r="AN7" s="12"/>
+      <c r="AO7" s="12"/>
+      <c r="AP7" s="12"/>
+      <c r="AQ7" s="12"/>
+      <c r="AR7" s="12"/>
+      <c r="AS7" s="12"/>
+      <c r="AT7" s="12"/>
+      <c r="AU7" s="12"/>
+      <c r="AV7" s="12"/>
+      <c r="AW7" s="12"/>
+      <c r="AX7" s="12"/>
+      <c r="AY7" s="12"/>
+      <c r="AZ7" s="12"/>
+      <c r="BA7" s="12"/>
+      <c r="BB7" s="12"/>
+      <c r="BC7" s="12"/>
+      <c r="BD7" s="12"/>
+      <c r="BE7" s="12"/>
+      <c r="BF7" s="12"/>
+      <c r="BG7" s="12"/>
+      <c r="BH7" s="12"/>
+      <c r="BI7" s="12"/>
+      <c r="BJ7" s="12"/>
+      <c r="BK7" s="12"/>
+      <c r="BL7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="4"/>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="4"/>
-      <c r="AM8" s="4"/>
-      <c r="AN8" s="4"/>
-      <c r="AO8" s="4"/>
-      <c r="AP8" s="4"/>
-      <c r="AQ8" s="4"/>
-      <c r="AR8" s="4"/>
-      <c r="AS8" s="4"/>
-      <c r="AT8" s="4"/>
-      <c r="AU8" s="4"/>
-      <c r="AV8" s="4"/>
-      <c r="AW8" s="4"/>
-      <c r="AX8" s="4"/>
-      <c r="AY8" s="4"/>
-      <c r="AZ8" s="4"/>
-      <c r="BA8" s="4"/>
-      <c r="BB8" s="4"/>
-      <c r="BC8" s="4"/>
-      <c r="BD8" s="4"/>
-      <c r="BE8" s="4"/>
-      <c r="BF8" s="4"/>
-      <c r="BG8" s="4"/>
-      <c r="BH8" s="4"/>
-      <c r="BI8" s="4"/>
-      <c r="BJ8" s="4"/>
-      <c r="BK8" s="4"/>
-      <c r="BL8" s="4"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="12"/>
+      <c r="AI8" s="12"/>
+      <c r="AJ8" s="12"/>
+      <c r="AK8" s="12"/>
+      <c r="AL8" s="12"/>
+      <c r="AM8" s="12"/>
+      <c r="AN8" s="12"/>
+      <c r="AO8" s="12"/>
+      <c r="AP8" s="12"/>
+      <c r="AQ8" s="12"/>
+      <c r="AR8" s="12"/>
+      <c r="AS8" s="12"/>
+      <c r="AT8" s="12"/>
+      <c r="AU8" s="12"/>
+      <c r="AV8" s="12"/>
+      <c r="AW8" s="12"/>
+      <c r="AX8" s="12"/>
+      <c r="AY8" s="12"/>
+      <c r="AZ8" s="12"/>
+      <c r="BA8" s="12"/>
+      <c r="BB8" s="12"/>
+      <c r="BC8" s="12"/>
+      <c r="BD8" s="12"/>
+      <c r="BE8" s="12"/>
+      <c r="BF8" s="12"/>
+      <c r="BG8" s="12"/>
+      <c r="BH8" s="12"/>
+      <c r="BI8" s="12"/>
+      <c r="BJ8" s="12"/>
+      <c r="BK8" s="12"/>
+      <c r="BL8" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="4"/>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="4"/>
-      <c r="AJ9" s="4"/>
-      <c r="AK9" s="4"/>
-      <c r="AL9" s="4"/>
-      <c r="AM9" s="4"/>
-      <c r="AN9" s="4"/>
-      <c r="AO9" s="4"/>
-      <c r="AP9" s="4"/>
-      <c r="AQ9" s="4"/>
-      <c r="AR9" s="4"/>
-      <c r="AS9" s="4"/>
-      <c r="AT9" s="4"/>
-      <c r="AU9" s="4"/>
-      <c r="AV9" s="4"/>
-      <c r="AW9" s="4"/>
-      <c r="AX9" s="4"/>
-      <c r="AY9" s="4"/>
-      <c r="AZ9" s="4"/>
-      <c r="BA9" s="4"/>
-      <c r="BB9" s="4"/>
-      <c r="BC9" s="4"/>
-      <c r="BD9" s="4"/>
-      <c r="BE9" s="4"/>
-      <c r="BF9" s="4"/>
-      <c r="BG9" s="4"/>
-      <c r="BH9" s="4"/>
-      <c r="BI9" s="4"/>
-      <c r="BJ9" s="4"/>
-      <c r="BK9" s="4"/>
-      <c r="BL9" s="4"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="12"/>
+      <c r="AJ9" s="12"/>
+      <c r="AK9" s="12"/>
+      <c r="AL9" s="12"/>
+      <c r="AM9" s="12"/>
+      <c r="AN9" s="12"/>
+      <c r="AO9" s="12"/>
+      <c r="AP9" s="12"/>
+      <c r="AQ9" s="12"/>
+      <c r="AR9" s="12"/>
+      <c r="AS9" s="12"/>
+      <c r="AT9" s="12"/>
+      <c r="AU9" s="12"/>
+      <c r="AV9" s="12"/>
+      <c r="AW9" s="12"/>
+      <c r="AX9" s="12"/>
+      <c r="AY9" s="12"/>
+      <c r="AZ9" s="12"/>
+      <c r="BA9" s="12"/>
+      <c r="BB9" s="12"/>
+      <c r="BC9" s="12"/>
+      <c r="BD9" s="12"/>
+      <c r="BE9" s="12"/>
+      <c r="BF9" s="12"/>
+      <c r="BG9" s="12"/>
+      <c r="BH9" s="12"/>
+      <c r="BI9" s="12"/>
+      <c r="BJ9" s="12"/>
+      <c r="BK9" s="12"/>
+      <c r="BL9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="4"/>
-      <c r="AF10" s="4"/>
-      <c r="AG10" s="4"/>
-      <c r="AH10" s="4"/>
-      <c r="AI10" s="4"/>
-      <c r="AJ10" s="4"/>
-      <c r="AK10" s="4"/>
-      <c r="AL10" s="4"/>
-      <c r="AM10" s="4"/>
-      <c r="AN10" s="4"/>
-      <c r="AO10" s="4"/>
-      <c r="AP10" s="4"/>
-      <c r="AQ10" s="4"/>
-      <c r="AR10" s="4"/>
-      <c r="AS10" s="4"/>
-      <c r="AT10" s="4"/>
-      <c r="AU10" s="4"/>
-      <c r="AV10" s="4"/>
-      <c r="AW10" s="4"/>
-      <c r="AX10" s="4"/>
-      <c r="AY10" s="4"/>
-      <c r="AZ10" s="4"/>
-      <c r="BA10" s="4"/>
-      <c r="BB10" s="4"/>
-      <c r="BC10" s="4"/>
-      <c r="BD10" s="4"/>
-      <c r="BE10" s="4"/>
-      <c r="BF10" s="4"/>
-      <c r="BG10" s="4"/>
-      <c r="BH10" s="4"/>
-      <c r="BI10" s="4"/>
-      <c r="BJ10" s="4"/>
-      <c r="BK10" s="4"/>
-      <c r="BL10" s="4"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="12"/>
+      <c r="AG10" s="12"/>
+      <c r="AH10" s="12"/>
+      <c r="AI10" s="12"/>
+      <c r="AJ10" s="12"/>
+      <c r="AK10" s="12"/>
+      <c r="AL10" s="12"/>
+      <c r="AM10" s="12"/>
+      <c r="AN10" s="12"/>
+      <c r="AO10" s="12"/>
+      <c r="AP10" s="12"/>
+      <c r="AQ10" s="12"/>
+      <c r="AR10" s="12"/>
+      <c r="AS10" s="12"/>
+      <c r="AT10" s="12"/>
+      <c r="AU10" s="12"/>
+      <c r="AV10" s="12"/>
+      <c r="AW10" s="12"/>
+      <c r="AX10" s="12"/>
+      <c r="AY10" s="12"/>
+      <c r="AZ10" s="12"/>
+      <c r="BA10" s="12"/>
+      <c r="BB10" s="12"/>
+      <c r="BC10" s="12"/>
+      <c r="BD10" s="12"/>
+      <c r="BE10" s="12"/>
+      <c r="BF10" s="12"/>
+      <c r="BG10" s="12"/>
+      <c r="BH10" s="12"/>
+      <c r="BI10" s="12"/>
+      <c r="BJ10" s="12"/>
+      <c r="BK10" s="12"/>
+      <c r="BL10" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="4"/>
-      <c r="AH11" s="4"/>
-      <c r="AI11" s="4"/>
-      <c r="AJ11" s="4"/>
-      <c r="AK11" s="4"/>
-      <c r="AL11" s="4"/>
-      <c r="AM11" s="4"/>
-      <c r="AN11" s="4"/>
-      <c r="AO11" s="4"/>
-      <c r="AP11" s="4"/>
-      <c r="AQ11" s="4"/>
-      <c r="AR11" s="4"/>
-      <c r="AS11" s="4"/>
-      <c r="AT11" s="4"/>
-      <c r="AU11" s="4"/>
-      <c r="AV11" s="4"/>
-      <c r="AW11" s="4"/>
-      <c r="AX11" s="4"/>
-      <c r="AY11" s="4"/>
-      <c r="AZ11" s="4"/>
-      <c r="BA11" s="4"/>
-      <c r="BB11" s="4"/>
-      <c r="BC11" s="4"/>
-      <c r="BD11" s="4"/>
-      <c r="BE11" s="4"/>
-      <c r="BF11" s="4"/>
-      <c r="BG11" s="4"/>
-      <c r="BH11" s="4"/>
-      <c r="BI11" s="4"/>
-      <c r="BJ11" s="4"/>
-      <c r="BK11" s="4"/>
-      <c r="BL11" s="4"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="12"/>
+      <c r="AG11" s="12"/>
+      <c r="AH11" s="12"/>
+      <c r="AI11" s="12"/>
+      <c r="AJ11" s="12"/>
+      <c r="AK11" s="12"/>
+      <c r="AL11" s="12"/>
+      <c r="AM11" s="12"/>
+      <c r="AN11" s="12"/>
+      <c r="AO11" s="12"/>
+      <c r="AP11" s="12"/>
+      <c r="AQ11" s="12"/>
+      <c r="AR11" s="12"/>
+      <c r="AS11" s="12"/>
+      <c r="AT11" s="12"/>
+      <c r="AU11" s="12"/>
+      <c r="AV11" s="12"/>
+      <c r="AW11" s="12"/>
+      <c r="AX11" s="12"/>
+      <c r="AY11" s="12"/>
+      <c r="AZ11" s="12"/>
+      <c r="BA11" s="12"/>
+      <c r="BB11" s="12"/>
+      <c r="BC11" s="12"/>
+      <c r="BD11" s="12"/>
+      <c r="BE11" s="12"/>
+      <c r="BF11" s="12"/>
+      <c r="BG11" s="12"/>
+      <c r="BH11" s="12"/>
+      <c r="BI11" s="12"/>
+      <c r="BJ11" s="12"/>
+      <c r="BK11" s="12"/>
+      <c r="BL11" s="12"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F12" s="12"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="12"/>
+      <c r="AJ12" s="12"/>
+      <c r="AK12" s="12"/>
+      <c r="AL12" s="12"/>
+      <c r="AM12" s="12"/>
+      <c r="AN12" s="12"/>
+      <c r="AO12" s="12"/>
+      <c r="AP12" s="12"/>
+      <c r="AQ12" s="12"/>
+      <c r="AR12" s="12"/>
+      <c r="AS12" s="12"/>
+      <c r="AT12" s="12"/>
+      <c r="AU12" s="12"/>
+      <c r="AV12" s="12"/>
+      <c r="AW12" s="12"/>
+      <c r="AX12" s="12"/>
+      <c r="AY12" s="12"/>
+      <c r="AZ12" s="12"/>
+      <c r="BA12" s="12"/>
+      <c r="BB12" s="12"/>
+      <c r="BC12" s="12"/>
+      <c r="BD12" s="12"/>
+      <c r="BE12" s="12"/>
+      <c r="BF12" s="12"/>
+      <c r="BG12" s="12"/>
+      <c r="BH12" s="12"/>
+      <c r="BI12" s="12"/>
+      <c r="BJ12" s="12"/>
+      <c r="BK12" s="12"/>
+      <c r="BL12" s="12"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F13" s="12"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="12"/>
+      <c r="AG13" s="12"/>
+      <c r="AH13" s="12"/>
+      <c r="AI13" s="12"/>
+      <c r="AJ13" s="12"/>
+      <c r="AK13" s="12"/>
+      <c r="AL13" s="12"/>
+      <c r="AM13" s="12"/>
+      <c r="AN13" s="12"/>
+      <c r="AO13" s="12"/>
+      <c r="AP13" s="12"/>
+      <c r="AQ13" s="12"/>
+      <c r="AR13" s="12"/>
+      <c r="AS13" s="12"/>
+      <c r="AT13" s="12"/>
+      <c r="AU13" s="12"/>
+      <c r="AV13" s="12"/>
+      <c r="AW13" s="12"/>
+      <c r="AX13" s="12"/>
+      <c r="AY13" s="12"/>
+      <c r="AZ13" s="12"/>
+      <c r="BA13" s="12"/>
+      <c r="BB13" s="12"/>
+      <c r="BC13" s="12"/>
+      <c r="BD13" s="12"/>
+      <c r="BE13" s="12"/>
+      <c r="BF13" s="12"/>
+      <c r="BG13" s="12"/>
+      <c r="BH13" s="12"/>
+      <c r="BI13" s="12"/>
+      <c r="BJ13" s="12"/>
+      <c r="BK13" s="12"/>
+      <c r="BL13" s="12"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="12"/>
+      <c r="AH14" s="12"/>
+      <c r="AI14" s="12"/>
+      <c r="AJ14" s="12"/>
+      <c r="AK14" s="12"/>
+      <c r="AL14" s="12"/>
+      <c r="AM14" s="12"/>
+      <c r="AN14" s="12"/>
+      <c r="AO14" s="12"/>
+      <c r="AP14" s="12"/>
+      <c r="AQ14" s="12"/>
+      <c r="AR14" s="12"/>
+      <c r="AS14" s="12"/>
+      <c r="AT14" s="12"/>
+      <c r="AU14" s="12"/>
+      <c r="AV14" s="12"/>
+      <c r="AW14" s="12"/>
+      <c r="AX14" s="12"/>
+      <c r="AY14" s="12"/>
+      <c r="AZ14" s="12"/>
+      <c r="BA14" s="12"/>
+      <c r="BB14" s="12"/>
+      <c r="BC14" s="12"/>
+      <c r="BD14" s="12"/>
+      <c r="BE14" s="12"/>
+      <c r="BF14" s="12"/>
+      <c r="BG14" s="12"/>
+      <c r="BH14" s="12"/>
+      <c r="BI14" s="12"/>
+      <c r="BJ14" s="12"/>
+      <c r="BK14" s="12"/>
+      <c r="BL14" s="12"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="12"/>
+      <c r="AF15" s="12"/>
+      <c r="AG15" s="12"/>
+      <c r="AH15" s="12"/>
+      <c r="AI15" s="12"/>
+      <c r="AJ15" s="12"/>
+      <c r="AK15" s="12"/>
+      <c r="AL15" s="12"/>
+      <c r="AM15" s="12"/>
+      <c r="AN15" s="12"/>
+      <c r="AO15" s="12"/>
+      <c r="AP15" s="12"/>
+      <c r="AQ15" s="12"/>
+      <c r="AR15" s="12"/>
+      <c r="AS15" s="12"/>
+      <c r="AT15" s="12"/>
+      <c r="AU15" s="12"/>
+      <c r="AV15" s="12"/>
+      <c r="AW15" s="12"/>
+      <c r="AX15" s="12"/>
+      <c r="AY15" s="12"/>
+      <c r="AZ15" s="12"/>
+      <c r="BA15" s="12"/>
+      <c r="BB15" s="12"/>
+      <c r="BC15" s="12"/>
+      <c r="BD15" s="12"/>
+      <c r="BE15" s="12"/>
+      <c r="BF15" s="12"/>
+      <c r="BG15" s="12"/>
+      <c r="BH15" s="12"/>
+      <c r="BI15" s="12"/>
+      <c r="BJ15" s="12"/>
+      <c r="BK15" s="12"/>
+      <c r="BL15" s="12"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+      <c r="AS16" s="12"/>
+      <c r="AT16" s="12"/>
+      <c r="AU16" s="12"/>
+      <c r="AV16" s="12"/>
+      <c r="AW16" s="12"/>
+      <c r="AX16" s="12"/>
+      <c r="AY16" s="12"/>
+      <c r="AZ16" s="12"/>
+      <c r="BA16" s="12"/>
+      <c r="BB16" s="12"/>
+      <c r="BC16" s="12"/>
+      <c r="BD16" s="12"/>
+      <c r="BE16" s="12"/>
+      <c r="BF16" s="12"/>
+      <c r="BG16" s="12"/>
+      <c r="BH16" s="12"/>
+      <c r="BI16" s="12"/>
+      <c r="BJ16" s="12"/>
+      <c r="BK16" s="12"/>
+      <c r="BL16" s="12"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="12"/>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="12"/>
+      <c r="AJ17" s="12"/>
+      <c r="AK17" s="12"/>
+      <c r="AL17" s="12"/>
+      <c r="AM17" s="12"/>
+      <c r="AN17" s="12"/>
+      <c r="AO17" s="12"/>
+      <c r="AP17" s="12"/>
+      <c r="AQ17" s="12"/>
+      <c r="AR17" s="12"/>
+      <c r="AS17" s="12"/>
+      <c r="AT17" s="12"/>
+      <c r="AU17" s="12"/>
+      <c r="AV17" s="12"/>
+      <c r="AW17" s="12"/>
+      <c r="AX17" s="12"/>
+      <c r="AY17" s="12"/>
+      <c r="AZ17" s="12"/>
+      <c r="BA17" s="12"/>
+      <c r="BB17" s="12"/>
+      <c r="BC17" s="12"/>
+      <c r="BD17" s="12"/>
+      <c r="BE17" s="12"/>
+      <c r="BF17" s="12"/>
+      <c r="BG17" s="12"/>
+      <c r="BH17" s="12"/>
+      <c r="BI17" s="12"/>
+      <c r="BJ17" s="12"/>
+      <c r="BK17" s="12"/>
+      <c r="BL17" s="12"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="12"/>
+      <c r="AF18" s="12"/>
+      <c r="AG18" s="12"/>
+      <c r="AH18" s="12"/>
+      <c r="AI18" s="12"/>
+      <c r="AJ18" s="12"/>
+      <c r="AK18" s="12"/>
+      <c r="AL18" s="12"/>
+      <c r="AM18" s="12"/>
+      <c r="AN18" s="12"/>
+      <c r="AO18" s="12"/>
+      <c r="AP18" s="12"/>
+      <c r="AQ18" s="12"/>
+      <c r="AR18" s="12"/>
+      <c r="AS18" s="12"/>
+      <c r="AT18" s="12"/>
+      <c r="AU18" s="12"/>
+      <c r="AV18" s="12"/>
+      <c r="AW18" s="12"/>
+      <c r="AX18" s="12"/>
+      <c r="AY18" s="12"/>
+      <c r="AZ18" s="12"/>
+      <c r="BA18" s="12"/>
+      <c r="BB18" s="12"/>
+      <c r="BC18" s="12"/>
+      <c r="BD18" s="12"/>
+      <c r="BE18" s="12"/>
+      <c r="BF18" s="12"/>
+      <c r="BG18" s="12"/>
+      <c r="BH18" s="12"/>
+      <c r="BI18" s="12"/>
+      <c r="BJ18" s="12"/>
+      <c r="BK18" s="12"/>
+      <c r="BL18" s="12"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="12"/>
+      <c r="AE19" s="12"/>
+      <c r="AF19" s="12"/>
+      <c r="AG19" s="12"/>
+      <c r="AH19" s="12"/>
+      <c r="AI19" s="12"/>
+      <c r="AJ19" s="12"/>
+      <c r="AK19" s="12"/>
+      <c r="AL19" s="12"/>
+      <c r="AM19" s="12"/>
+      <c r="AN19" s="12"/>
+      <c r="AO19" s="12"/>
+      <c r="AP19" s="12"/>
+      <c r="AQ19" s="12"/>
+      <c r="AR19" s="12"/>
+      <c r="AS19" s="12"/>
+      <c r="AT19" s="12"/>
+      <c r="AU19" s="12"/>
+      <c r="AV19" s="12"/>
+      <c r="AW19" s="12"/>
+      <c r="AX19" s="12"/>
+      <c r="AY19" s="12"/>
+      <c r="AZ19" s="12"/>
+      <c r="BA19" s="12"/>
+      <c r="BB19" s="12"/>
+      <c r="BC19" s="12"/>
+      <c r="BD19" s="12"/>
+      <c r="BE19" s="12"/>
+      <c r="BF19" s="12"/>
+      <c r="BG19" s="12"/>
+      <c r="BH19" s="12"/>
+      <c r="BI19" s="12"/>
+      <c r="BJ19" s="12"/>
+      <c r="BK19" s="12"/>
+      <c r="BL19" s="12"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="12"/>
+      <c r="AE20" s="12"/>
+      <c r="AF20" s="12"/>
+      <c r="AG20" s="12"/>
+      <c r="AH20" s="12"/>
+      <c r="AI20" s="12"/>
+      <c r="AJ20" s="12"/>
+      <c r="AK20" s="12"/>
+      <c r="AL20" s="12"/>
+      <c r="AM20" s="12"/>
+      <c r="AN20" s="12"/>
+      <c r="AO20" s="12"/>
+      <c r="AP20" s="12"/>
+      <c r="AQ20" s="12"/>
+      <c r="AR20" s="12"/>
+      <c r="AS20" s="12"/>
+      <c r="AT20" s="12"/>
+      <c r="AU20" s="12"/>
+      <c r="AV20" s="12"/>
+      <c r="AW20" s="12"/>
+      <c r="AX20" s="12"/>
+      <c r="AY20" s="12"/>
+      <c r="AZ20" s="12"/>
+      <c r="BA20" s="12"/>
+      <c r="BB20" s="12"/>
+      <c r="BC20" s="12"/>
+      <c r="BD20" s="12"/>
+      <c r="BE20" s="12"/>
+      <c r="BF20" s="12"/>
+      <c r="BG20" s="12"/>
+      <c r="BH20" s="12"/>
+      <c r="BI20" s="12"/>
+      <c r="BJ20" s="12"/>
+      <c r="BK20" s="12"/>
+      <c r="BL20" s="12"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="12"/>
+      <c r="AF21" s="12"/>
+      <c r="AG21" s="12"/>
+      <c r="AH21" s="12"/>
+      <c r="AI21" s="12"/>
+      <c r="AJ21" s="12"/>
+      <c r="AK21" s="12"/>
+      <c r="AL21" s="12"/>
+      <c r="AM21" s="12"/>
+      <c r="AN21" s="12"/>
+      <c r="AO21" s="12"/>
+      <c r="AP21" s="12"/>
+      <c r="AQ21" s="12"/>
+      <c r="AR21" s="12"/>
+      <c r="AS21" s="12"/>
+      <c r="AT21" s="12"/>
+      <c r="AU21" s="12"/>
+      <c r="AV21" s="12"/>
+      <c r="AW21" s="12"/>
+      <c r="AX21" s="12"/>
+      <c r="AY21" s="12"/>
+      <c r="AZ21" s="12"/>
+      <c r="BA21" s="12"/>
+      <c r="BB21" s="12"/>
+      <c r="BC21" s="12"/>
+      <c r="BD21" s="12"/>
+      <c r="BE21" s="12"/>
+      <c r="BF21" s="12"/>
+      <c r="BG21" s="12"/>
+      <c r="BH21" s="12"/>
+      <c r="BI21" s="12"/>
+      <c r="BJ21" s="12"/>
+      <c r="BK21" s="12"/>
+      <c r="BL21" s="12"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="12"/>
+      <c r="AE22" s="12"/>
+      <c r="AF22" s="12"/>
+      <c r="AG22" s="12"/>
+      <c r="AH22" s="12"/>
+      <c r="AI22" s="12"/>
+      <c r="AJ22" s="12"/>
+      <c r="AK22" s="12"/>
+      <c r="AL22" s="12"/>
+      <c r="AM22" s="12"/>
+      <c r="AN22" s="12"/>
+      <c r="AO22" s="12"/>
+      <c r="AP22" s="12"/>
+      <c r="AQ22" s="12"/>
+      <c r="AR22" s="12"/>
+      <c r="AS22" s="12"/>
+      <c r="AT22" s="12"/>
+      <c r="AU22" s="12"/>
+      <c r="AV22" s="12"/>
+      <c r="AW22" s="12"/>
+      <c r="AX22" s="12"/>
+      <c r="AY22" s="12"/>
+      <c r="AZ22" s="12"/>
+      <c r="BA22" s="12"/>
+      <c r="BB22" s="12"/>
+      <c r="BC22" s="12"/>
+      <c r="BD22" s="12"/>
+      <c r="BE22" s="12"/>
+      <c r="BF22" s="12"/>
+      <c r="BG22" s="12"/>
+      <c r="BH22" s="12"/>
+      <c r="BI22" s="12"/>
+      <c r="BJ22" s="12"/>
+      <c r="BK22" s="12"/>
+      <c r="BL22" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A7" r:id="rId1" display="$.Procedures[*].Number"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/examples/reports/en-gb/CompanyProceduresReportTemplate.xlsx
+++ b/examples/reports/en-gb/CompanyProceduresReportTemplate.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\bidzaar\src\etplight\backend\services\reportgenerator\src\Cognitive.ReportGenerator\Templates\en-gb\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875AFA3D-A2B2-40AD-B970-D7FBB6220605}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -20,273 +25,256 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
-  <si>
-    <t xml:space="preserve">Сompany requests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generated by Bidzaar at $.Now, times values in the document are in $.Tz timezone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Company</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.CreatedCompany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Request ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Request</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Budget</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Request category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Currency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winner selection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Created</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Published</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bid acceptance due date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finished</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participants (incl. invited)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participants (agreed to participate)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participants (with an offer)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winners qty.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winners</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Order price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Responsible owners</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Economy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worst starting bid price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Best starting bid price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winner's starting bid price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average price of starting bids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bid quantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Views</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tags</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].Budget</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].Currency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].Nds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].CreatedDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].PublishDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].AcceptanceEndDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].FinishDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].AllParticipants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].ParticipantsCount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].ProposalsCount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].WinnersCount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].Winners</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].OrderPrice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].Responsible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].ChangeType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].Saving</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].FirstWorstPrice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].FirstBestPrice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].FirstWinnerPrice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].FirstAveragePrice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].RequireFull</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].ViewCount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].Tags</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>$.CreatedCompany</t>
+  </si>
+  <si>
+    <t>Request ID</t>
+  </si>
+  <si>
+    <t>Request</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Request category</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Winner selection</t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t>Published</t>
+  </si>
+  <si>
+    <t>Bid acceptance due date</t>
+  </si>
+  <si>
+    <t>Finished</t>
+  </si>
+  <si>
+    <t>Participants (incl. invited)</t>
+  </si>
+  <si>
+    <t>Participants (agreed to participate)</t>
+  </si>
+  <si>
+    <t>Participants (with an offer)</t>
+  </si>
+  <si>
+    <t>Winners qty.</t>
+  </si>
+  <si>
+    <t>Winners</t>
+  </si>
+  <si>
+    <t>Order price</t>
+  </si>
+  <si>
+    <t>Responsible owners</t>
+  </si>
+  <si>
+    <t>Price change</t>
+  </si>
+  <si>
+    <t>Economy</t>
+  </si>
+  <si>
+    <t>Worst starting bid price</t>
+  </si>
+  <si>
+    <t>Best starting bid price</t>
+  </si>
+  <si>
+    <t>Winner's starting bid price</t>
+  </si>
+  <si>
+    <t>Average price of starting bids</t>
+  </si>
+  <si>
+    <t>Bid quantity</t>
+  </si>
+  <si>
+    <t>Views</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].Number</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].Name</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].Status</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].Type</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].Budget</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].Category</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].Currency</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].Nds</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].CreatedDate</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].PublishDate</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].AcceptanceEndDate</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].FinishDate</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].AllParticipants</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].ParticipantsCount</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].ProposalsCount</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].WinnersCount</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].Winners</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].OrderPrice</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].Responsible</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].ChangeType</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].Saving</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].FirstWorstPrice</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].FirstBestPrice</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].FirstWinnerPrice</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].FirstAveragePrice</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].RequireFull</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].ViewCount</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].Tags</t>
+  </si>
+  <si>
+    <t>Generated by $.BrandName at $.Now, times values in the document are in $.Tz timezone</t>
+  </si>
+  <si>
+    <t>$.Period</t>
+  </si>
+  <si>
+    <t>$.ReportName</t>
+  </si>
+  <si>
+    <t>Reporting period</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].Fee</t>
+  </si>
+  <si>
+    <t>Who pays the Service Operator's Commission</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="167" formatCode="#\ ##0.00"/>
-    <numFmt numFmtId="168" formatCode="#\ ##0.00&quot; ₽&quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="165" formatCode="#\ ##0.00"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="18"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -299,21 +287,23 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -325,106 +315,56 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -483,336 +423,590 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+  <a:themeElements>
+    <a:clrScheme name="Стандартная">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Стандартная">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Стандартная">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="92.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="9" style="0" width="16.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="30.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="58.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="21" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="27.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="105.3"/>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="92.44140625" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="17" width="16.44140625" customWidth="1"/>
+    <col min="18" max="18" width="20.6640625" customWidth="1"/>
+    <col min="19" max="19" width="30.6640625" customWidth="1"/>
+    <col min="20" max="20" width="31.5546875" customWidth="1"/>
+    <col min="21" max="21" width="58.6640625" customWidth="1"/>
+    <col min="22" max="26" width="20.6640625" customWidth="1"/>
+    <col min="27" max="27" width="27.33203125" customWidth="1"/>
+    <col min="28" max="28" width="13.5546875" customWidth="1"/>
+    <col min="29" max="29" width="105.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:65" ht="23.4">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" s="2" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:65" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:65" s="2" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="4" s="2" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:65" ht="15.75" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:65" s="6" customFormat="1" ht="16.2" thickBot="1">
+      <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="5"/>
+      <c r="AQ7" s="5"/>
+      <c r="AR7" s="5"/>
+      <c r="AS7" s="5"/>
+      <c r="AT7" s="5"/>
+      <c r="AU7" s="5"/>
+      <c r="AV7" s="5"/>
+      <c r="AW7" s="5"/>
+      <c r="AX7" s="5"/>
+      <c r="AY7" s="5"/>
+      <c r="AZ7" s="5"/>
+      <c r="BA7" s="5"/>
+      <c r="BB7" s="5"/>
+      <c r="BC7" s="5"/>
+      <c r="BD7" s="5"/>
+      <c r="BE7" s="5"/>
+      <c r="BF7" s="5"/>
+      <c r="BG7" s="5"/>
+      <c r="BH7" s="5"/>
+      <c r="BI7" s="5"/>
+      <c r="BJ7" s="5"/>
+      <c r="BK7" s="5"/>
+      <c r="BL7" s="5"/>
+      <c r="BM7" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="6" s="6" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA6" s="4" t="s">
+    <row r="8" spans="1:65" ht="15.6">
+      <c r="A8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AB6" s="4" t="s">
+      <c r="B8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
-      <c r="AG6" s="5"/>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="5"/>
-      <c r="AM6" s="5"/>
-      <c r="AN6" s="5"/>
-      <c r="AO6" s="5"/>
-      <c r="AP6" s="5"/>
-      <c r="AQ6" s="5"/>
-      <c r="AR6" s="5"/>
-      <c r="AS6" s="5"/>
-      <c r="AT6" s="5"/>
-      <c r="AU6" s="5"/>
-      <c r="AV6" s="5"/>
-      <c r="AW6" s="5"/>
-      <c r="AX6" s="5"/>
-      <c r="AY6" s="5"/>
-      <c r="AZ6" s="5"/>
-      <c r="BA6" s="5"/>
-      <c r="BB6" s="5"/>
-      <c r="BC6" s="5"/>
-      <c r="BD6" s="5"/>
-      <c r="BE6" s="5"/>
-      <c r="BF6" s="5"/>
-      <c r="BG6" s="5"/>
-      <c r="BH6" s="5"/>
-      <c r="BI6" s="5"/>
-      <c r="BJ6" s="5"/>
-      <c r="BK6" s="5"/>
-      <c r="BL6" s="5"/>
-      <c r="BM6" s="5"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="H8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="I8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="J8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="K8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="L8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="M8" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="N8" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="O8" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="P8" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="O7" s="11" t="s">
+      <c r="Q8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="R8" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="Q7" s="8" t="s">
+      <c r="S8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="R7" s="11" t="s">
+      <c r="T8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="U8" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="S7" s="8" t="s">
+      <c r="V8" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="T7" s="8" t="s">
+      <c r="W8" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="U7" s="11" t="s">
+      <c r="X8" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="V7" s="11" t="s">
+      <c r="Y8" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="W7" s="11" t="s">
+      <c r="Z8" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="X7" s="11" t="s">
+      <c r="AA8" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="Y7" s="11" t="s">
+      <c r="AB8" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="Z7" s="11" t="s">
+      <c r="AC8" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AA7" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB7" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="12"/>
-      <c r="AI7" s="12"/>
-      <c r="AJ7" s="12"/>
-      <c r="AK7" s="12"/>
-      <c r="AL7" s="12"/>
-      <c r="AM7" s="12"/>
-      <c r="AN7" s="12"/>
-      <c r="AO7" s="12"/>
-      <c r="AP7" s="12"/>
-      <c r="AQ7" s="12"/>
-      <c r="AR7" s="12"/>
-      <c r="AS7" s="12"/>
-      <c r="AT7" s="12"/>
-      <c r="AU7" s="12"/>
-      <c r="AV7" s="12"/>
-      <c r="AW7" s="12"/>
-      <c r="AX7" s="12"/>
-      <c r="AY7" s="12"/>
-      <c r="AZ7" s="12"/>
-      <c r="BA7" s="12"/>
-      <c r="BB7" s="12"/>
-      <c r="BC7" s="12"/>
-      <c r="BD7" s="12"/>
-      <c r="BE7" s="12"/>
-      <c r="BF7" s="12"/>
-      <c r="BG7" s="12"/>
-      <c r="BH7" s="12"/>
-      <c r="BI7" s="12"/>
-      <c r="BJ7" s="12"/>
-      <c r="BK7" s="12"/>
-      <c r="BL7" s="12"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
       <c r="AD8" s="12"/>
       <c r="AE8" s="12"/>
       <c r="AF8" s="12"/>
@@ -849,13 +1043,13 @@
       <c r="BK8" s="12"/>
       <c r="BL8" s="12"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:65">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -869,7 +1063,6 @@
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
@@ -915,13 +1108,13 @@
       <c r="BK9" s="12"/>
       <c r="BL9" s="12"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:65">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
@@ -935,7 +1128,6 @@
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
       <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
@@ -981,13 +1173,13 @@
       <c r="BK10" s="12"/>
       <c r="BL10" s="12"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:65">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -1001,7 +1193,6 @@
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
       <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
       <c r="W11" s="12"/>
@@ -1047,13 +1238,13 @@
       <c r="BK11" s="12"/>
       <c r="BL11" s="12"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:65">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
@@ -1067,7 +1258,6 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="12"/>
       <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
       <c r="U12" s="12"/>
       <c r="V12" s="12"/>
       <c r="W12" s="12"/>
@@ -1113,13 +1303,13 @@
       <c r="BK12" s="12"/>
       <c r="BL12" s="12"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:65">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
@@ -1133,7 +1323,6 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="12"/>
       <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
       <c r="U13" s="12"/>
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
@@ -1179,13 +1368,13 @@
       <c r="BK13" s="12"/>
       <c r="BL13" s="12"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:65">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
@@ -1199,7 +1388,6 @@
       <c r="Q14" s="12"/>
       <c r="R14" s="12"/>
       <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
       <c r="U14" s="12"/>
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
@@ -1245,13 +1433,13 @@
       <c r="BK14" s="12"/>
       <c r="BL14" s="12"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:65">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
@@ -1265,7 +1453,6 @@
       <c r="Q15" s="12"/>
       <c r="R15" s="12"/>
       <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
       <c r="U15" s="12"/>
       <c r="V15" s="12"/>
       <c r="W15" s="12"/>
@@ -1311,13 +1498,13 @@
       <c r="BK15" s="12"/>
       <c r="BL15" s="12"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:65">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
@@ -1331,7 +1518,6 @@
       <c r="Q16" s="12"/>
       <c r="R16" s="12"/>
       <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
       <c r="U16" s="12"/>
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
@@ -1377,13 +1563,13 @@
       <c r="BK16" s="12"/>
       <c r="BL16" s="12"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:64">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
@@ -1397,7 +1583,6 @@
       <c r="Q17" s="12"/>
       <c r="R17" s="12"/>
       <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
       <c r="U17" s="12"/>
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
@@ -1443,13 +1628,13 @@
       <c r="BK17" s="12"/>
       <c r="BL17" s="12"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:64">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
@@ -1463,7 +1648,6 @@
       <c r="Q18" s="12"/>
       <c r="R18" s="12"/>
       <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
       <c r="U18" s="12"/>
       <c r="V18" s="12"/>
       <c r="W18" s="12"/>
@@ -1509,13 +1693,13 @@
       <c r="BK18" s="12"/>
       <c r="BL18" s="12"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:64">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
@@ -1529,7 +1713,6 @@
       <c r="Q19" s="12"/>
       <c r="R19" s="12"/>
       <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
       <c r="U19" s="12"/>
       <c r="V19" s="12"/>
       <c r="W19" s="12"/>
@@ -1575,13 +1758,13 @@
       <c r="BK19" s="12"/>
       <c r="BL19" s="12"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:64">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
@@ -1595,7 +1778,6 @@
       <c r="Q20" s="12"/>
       <c r="R20" s="12"/>
       <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
       <c r="U20" s="12"/>
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
@@ -1641,13 +1823,13 @@
       <c r="BK20" s="12"/>
       <c r="BL20" s="12"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:64">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
@@ -1661,7 +1843,6 @@
       <c r="Q21" s="12"/>
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
       <c r="U21" s="12"/>
       <c r="V21" s="12"/>
       <c r="W21" s="12"/>
@@ -1707,13 +1888,13 @@
       <c r="BK21" s="12"/>
       <c r="BL21" s="12"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:64">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
@@ -1727,7 +1908,6 @@
       <c r="Q22" s="12"/>
       <c r="R22" s="12"/>
       <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
       <c r="U22" s="12"/>
       <c r="V22" s="12"/>
       <c r="W22" s="12"/>
@@ -1775,14 +1955,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" display="$.Procedures[*].Number"/>
+    <hyperlink ref="A8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/examples/reports/en-gb/CompanyProceduresReportTemplate.xlsx
+++ b/examples/reports/en-gb/CompanyProceduresReportTemplate.xlsx
@@ -1,31 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20396"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\bidzaar\src\etplight\backend\services\reportgenerator\src\Cognitive.ReportGenerator\Templates\en-gb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875AFA3D-A2B2-40AD-B970-D7FBB6220605}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6015AC59-FCC1-4748-BDB7-39289B6886D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12552" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Requests" sheetId="1" r:id="rId1"/>
+    <sheet name="Goods and services" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
   <si>
     <t>Company</t>
   </si>
@@ -90,27 +86,9 @@
     <t>Responsible owners</t>
   </si>
   <si>
-    <t>Price change</t>
-  </si>
-  <si>
     <t>Economy</t>
   </si>
   <si>
-    <t>Worst starting bid price</t>
-  </si>
-  <si>
-    <t>Best starting bid price</t>
-  </si>
-  <si>
-    <t>Winner's starting bid price</t>
-  </si>
-  <si>
-    <t>Average price of starting bids</t>
-  </si>
-  <si>
-    <t>Bid quantity</t>
-  </si>
-  <si>
     <t>Views</t>
   </si>
   <si>
@@ -174,27 +152,9 @@
     <t>$.Procedures[*].Responsible</t>
   </si>
   <si>
-    <t>$.Procedures[*].ChangeType</t>
-  </si>
-  <si>
     <t>$.Procedures[*].Saving</t>
   </si>
   <si>
-    <t>$.Procedures[*].FirstWorstPrice</t>
-  </si>
-  <si>
-    <t>$.Procedures[*].FirstBestPrice</t>
-  </si>
-  <si>
-    <t>$.Procedures[*].FirstWinnerPrice</t>
-  </si>
-  <si>
-    <t>$.Procedures[*].FirstAveragePrice</t>
-  </si>
-  <si>
-    <t>$.Procedures[*].RequireFull</t>
-  </si>
-  <si>
     <t>$.Procedures[*].ViewCount</t>
   </si>
   <si>
@@ -216,7 +176,61 @@
     <t>$.Procedures[*].Fee</t>
   </si>
   <si>
-    <t>Who pays the Service Operator's Commission</t>
+    <t>$.Procedures[*].ExternalId</t>
+  </si>
+  <si>
+    <t>External ID</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].ParticipantsInvited</t>
+  </si>
+  <si>
+    <t>$.Groups[*].ProcedureNumber</t>
+  </si>
+  <si>
+    <t>$.Groups[*].Name</t>
+  </si>
+  <si>
+    <t>$.Groups[*].ProposalItemsDeviationType</t>
+  </si>
+  <si>
+    <t>$.Groups[*].WinnersCount</t>
+  </si>
+  <si>
+    <t>$.Groups[*].Winners</t>
+  </si>
+  <si>
+    <t>Goods and services</t>
+  </si>
+  <si>
+    <t>Group title</t>
+  </si>
+  <si>
+    <t>Proposal requirements</t>
+  </si>
+  <si>
+    <t>Invited participants</t>
+  </si>
+  <si>
+    <t>Declined participants</t>
+  </si>
+  <si>
+    <t>Who pays the fee</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].ParticipantsBlocked</t>
+  </si>
+  <si>
+    <t>$.Groups[*].PermitUpDown</t>
+  </si>
+  <si>
+    <t>After submitting the first proposal</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].ProcedureType</t>
+  </si>
+  <si>
+    <t>Buying/Selling</t>
   </si>
 </sst>
 </file>
@@ -227,7 +241,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="165" formatCode="#\ ##0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -277,6 +291,26 @@
       <name val="Calibri"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -286,7 +320,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -314,12 +348,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -358,10 +402,61 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="2" xr:uid="{D1DEF3F1-C2C7-4307-8990-59AC4C01EE7C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -741,44 +836,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BM22"/>
+  <dimension ref="A1:BK22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14.5546875" customWidth="1"/>
-    <col min="2" max="2" width="92.44140625" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="7" width="20.6640625" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="17" width="16.44140625" customWidth="1"/>
-    <col min="18" max="18" width="20.6640625" customWidth="1"/>
-    <col min="19" max="19" width="30.6640625" customWidth="1"/>
-    <col min="20" max="20" width="31.5546875" customWidth="1"/>
-    <col min="21" max="21" width="58.6640625" customWidth="1"/>
-    <col min="22" max="26" width="20.6640625" customWidth="1"/>
-    <col min="27" max="27" width="27.33203125" customWidth="1"/>
-    <col min="28" max="28" width="13.5546875" customWidth="1"/>
-    <col min="29" max="29" width="105.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="92.44140625" customWidth="1"/>
+    <col min="4" max="5" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
+    <col min="11" max="11" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="34.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="30" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.6640625" customWidth="1"/>
+    <col min="24" max="24" width="31.5546875" customWidth="1"/>
+    <col min="25" max="25" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="105.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="23.4">
+    <row r="1" spans="1:63" ht="23.4">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:65" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:63" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:65" s="2" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" customHeight="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:63" s="2" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="4" spans="1:63" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -786,102 +892,98 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:65" ht="15.75" customHeight="1">
+    <row r="5" spans="1:63" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:65" s="6" customFormat="1" ht="16.2" thickBot="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:63" s="6" customFormat="1" ht="16.2" thickBot="1">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="N7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="O7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="P7" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="R7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="S7" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="T7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="U7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="V7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="W7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="T7" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="U7" s="4" t="s">
+      <c r="X7" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="V7" s="4" t="s">
+      <c r="Z7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="W7" s="4" t="s">
+      <c r="AA7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="X7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC7" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
@@ -916,97 +1018,91 @@
       <c r="BI7" s="5"/>
       <c r="BJ7" s="5"/>
       <c r="BK7" s="5"/>
-      <c r="BL7" s="5"/>
-      <c r="BM7" s="5"/>
-    </row>
-    <row r="8" spans="1:65" ht="15.6">
+    </row>
+    <row r="8" spans="1:63" ht="15.6">
       <c r="A8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="J8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="K8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="L8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="M8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="N8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="O8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="P8" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="R8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="S8" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="T8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="U8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="V8" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="W8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="X8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y8" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="Z8" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="AA8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="Q8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="R8" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="S8" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="T8" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="U8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="V8" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="W8" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="X8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y8" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z8" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA8" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB8" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC8" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
       <c r="AD8" s="12"/>
       <c r="AE8" s="12"/>
       <c r="AF8" s="12"/>
@@ -1040,18 +1136,16 @@
       <c r="BH8" s="12"/>
       <c r="BI8" s="12"/>
       <c r="BJ8" s="12"/>
-      <c r="BK8" s="12"/>
-      <c r="BL8" s="12"/>
-    </row>
-    <row r="9" spans="1:65">
+    </row>
+    <row r="9" spans="1:63">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
@@ -1063,10 +1157,10 @@
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
       <c r="Y9" s="12"/>
       <c r="Z9" s="12"/>
       <c r="AA9" s="12"/>
@@ -1105,18 +1199,16 @@
       <c r="BH9" s="12"/>
       <c r="BI9" s="12"/>
       <c r="BJ9" s="12"/>
-      <c r="BK9" s="12"/>
-      <c r="BL9" s="12"/>
-    </row>
-    <row r="10" spans="1:65">
+    </row>
+    <row r="10" spans="1:63">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
@@ -1128,10 +1220,10 @@
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
       <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
       <c r="Y10" s="12"/>
       <c r="Z10" s="12"/>
       <c r="AA10" s="12"/>
@@ -1170,18 +1262,16 @@
       <c r="BH10" s="12"/>
       <c r="BI10" s="12"/>
       <c r="BJ10" s="12"/>
-      <c r="BK10" s="12"/>
-      <c r="BL10" s="12"/>
-    </row>
-    <row r="11" spans="1:65">
+    </row>
+    <row r="11" spans="1:63">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
@@ -1193,10 +1283,10 @@
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
       <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
       <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
       <c r="Y11" s="12"/>
       <c r="Z11" s="12"/>
       <c r="AA11" s="12"/>
@@ -1235,18 +1325,16 @@
       <c r="BH11" s="12"/>
       <c r="BI11" s="12"/>
       <c r="BJ11" s="12"/>
-      <c r="BK11" s="12"/>
-      <c r="BL11" s="12"/>
-    </row>
-    <row r="12" spans="1:65">
+    </row>
+    <row r="12" spans="1:63">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
@@ -1258,10 +1346,10 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="12"/>
       <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
       <c r="U12" s="12"/>
       <c r="V12" s="12"/>
       <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
       <c r="Y12" s="12"/>
       <c r="Z12" s="12"/>
       <c r="AA12" s="12"/>
@@ -1300,18 +1388,16 @@
       <c r="BH12" s="12"/>
       <c r="BI12" s="12"/>
       <c r="BJ12" s="12"/>
-      <c r="BK12" s="12"/>
-      <c r="BL12" s="12"/>
-    </row>
-    <row r="13" spans="1:65">
+    </row>
+    <row r="13" spans="1:63">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
@@ -1323,10 +1409,10 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="12"/>
       <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
       <c r="U13" s="12"/>
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
       <c r="Y13" s="12"/>
       <c r="Z13" s="12"/>
       <c r="AA13" s="12"/>
@@ -1365,18 +1451,16 @@
       <c r="BH13" s="12"/>
       <c r="BI13" s="12"/>
       <c r="BJ13" s="12"/>
-      <c r="BK13" s="12"/>
-      <c r="BL13" s="12"/>
-    </row>
-    <row r="14" spans="1:65">
+    </row>
+    <row r="14" spans="1:63">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
@@ -1388,10 +1472,10 @@
       <c r="Q14" s="12"/>
       <c r="R14" s="12"/>
       <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
       <c r="U14" s="12"/>
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
       <c r="Y14" s="12"/>
       <c r="Z14" s="12"/>
       <c r="AA14" s="12"/>
@@ -1430,18 +1514,16 @@
       <c r="BH14" s="12"/>
       <c r="BI14" s="12"/>
       <c r="BJ14" s="12"/>
-      <c r="BK14" s="12"/>
-      <c r="BL14" s="12"/>
-    </row>
-    <row r="15" spans="1:65">
+    </row>
+    <row r="15" spans="1:63">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
@@ -1453,10 +1535,10 @@
       <c r="Q15" s="12"/>
       <c r="R15" s="12"/>
       <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
       <c r="U15" s="12"/>
       <c r="V15" s="12"/>
       <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
       <c r="Y15" s="12"/>
       <c r="Z15" s="12"/>
       <c r="AA15" s="12"/>
@@ -1495,18 +1577,16 @@
       <c r="BH15" s="12"/>
       <c r="BI15" s="12"/>
       <c r="BJ15" s="12"/>
-      <c r="BK15" s="12"/>
-      <c r="BL15" s="12"/>
-    </row>
-    <row r="16" spans="1:65">
+    </row>
+    <row r="16" spans="1:63">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
@@ -1518,10 +1598,10 @@
       <c r="Q16" s="12"/>
       <c r="R16" s="12"/>
       <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
       <c r="U16" s="12"/>
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
       <c r="Y16" s="12"/>
       <c r="Z16" s="12"/>
       <c r="AA16" s="12"/>
@@ -1560,18 +1640,16 @@
       <c r="BH16" s="12"/>
       <c r="BI16" s="12"/>
       <c r="BJ16" s="12"/>
-      <c r="BK16" s="12"/>
-      <c r="BL16" s="12"/>
-    </row>
-    <row r="17" spans="1:64">
+    </row>
+    <row r="17" spans="1:62">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
@@ -1583,10 +1661,10 @@
       <c r="Q17" s="12"/>
       <c r="R17" s="12"/>
       <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
       <c r="U17" s="12"/>
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
       <c r="Z17" s="12"/>
       <c r="AA17" s="12"/>
@@ -1625,18 +1703,16 @@
       <c r="BH17" s="12"/>
       <c r="BI17" s="12"/>
       <c r="BJ17" s="12"/>
-      <c r="BK17" s="12"/>
-      <c r="BL17" s="12"/>
-    </row>
-    <row r="18" spans="1:64">
+    </row>
+    <row r="18" spans="1:62">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
@@ -1648,10 +1724,10 @@
       <c r="Q18" s="12"/>
       <c r="R18" s="12"/>
       <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
       <c r="U18" s="12"/>
       <c r="V18" s="12"/>
       <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
       <c r="Z18" s="12"/>
       <c r="AA18" s="12"/>
@@ -1690,18 +1766,16 @@
       <c r="BH18" s="12"/>
       <c r="BI18" s="12"/>
       <c r="BJ18" s="12"/>
-      <c r="BK18" s="12"/>
-      <c r="BL18" s="12"/>
-    </row>
-    <row r="19" spans="1:64">
+    </row>
+    <row r="19" spans="1:62">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
@@ -1713,10 +1787,10 @@
       <c r="Q19" s="12"/>
       <c r="R19" s="12"/>
       <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
       <c r="U19" s="12"/>
       <c r="V19" s="12"/>
       <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
       <c r="Y19" s="12"/>
       <c r="Z19" s="12"/>
       <c r="AA19" s="12"/>
@@ -1755,18 +1829,16 @@
       <c r="BH19" s="12"/>
       <c r="BI19" s="12"/>
       <c r="BJ19" s="12"/>
-      <c r="BK19" s="12"/>
-      <c r="BL19" s="12"/>
-    </row>
-    <row r="20" spans="1:64">
+    </row>
+    <row r="20" spans="1:62">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
@@ -1778,10 +1850,10 @@
       <c r="Q20" s="12"/>
       <c r="R20" s="12"/>
       <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
       <c r="U20" s="12"/>
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
       <c r="Y20" s="12"/>
       <c r="Z20" s="12"/>
       <c r="AA20" s="12"/>
@@ -1820,18 +1892,16 @@
       <c r="BH20" s="12"/>
       <c r="BI20" s="12"/>
       <c r="BJ20" s="12"/>
-      <c r="BK20" s="12"/>
-      <c r="BL20" s="12"/>
-    </row>
-    <row r="21" spans="1:64">
+    </row>
+    <row r="21" spans="1:62">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
@@ -1843,10 +1913,10 @@
       <c r="Q21" s="12"/>
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
       <c r="U21" s="12"/>
       <c r="V21" s="12"/>
       <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
       <c r="Y21" s="12"/>
       <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
@@ -1885,18 +1955,16 @@
       <c r="BH21" s="12"/>
       <c r="BI21" s="12"/>
       <c r="BJ21" s="12"/>
-      <c r="BK21" s="12"/>
-      <c r="BL21" s="12"/>
-    </row>
-    <row r="22" spans="1:64">
+    </row>
+    <row r="22" spans="1:62">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
@@ -1908,10 +1976,10 @@
       <c r="Q22" s="12"/>
       <c r="R22" s="12"/>
       <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
       <c r="U22" s="12"/>
       <c r="V22" s="12"/>
       <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
       <c r="Y22" s="12"/>
       <c r="Z22" s="12"/>
       <c r="AA22" s="12"/>
@@ -1950,8 +2018,6 @@
       <c r="BH22" s="12"/>
       <c r="BI22" s="12"/>
       <c r="BJ22" s="12"/>
-      <c r="BK22" s="12"/>
-      <c r="BL22" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1960,4 +2026,80 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4663BF-3BAC-443C-AEDC-ADCBB022E396}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="42.88671875" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49" customWidth="1"/>
+    <col min="5" max="5" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="23.4">
+      <c r="A1" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+    </row>
+    <row r="3" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A3" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.8" customHeight="1">
+      <c r="A4" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" display="$.Procedures[*].Number" xr:uid="{3FECA9C7-8ADD-4EAE-8760-6CC326DBA7B1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>